--- a/product_template.xlsx
+++ b/product_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEFBAF4-3AFD-4F5C-8460-005A51ECCD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E37F1B-E99C-409B-81FC-55EEB2CA460D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{979EDB74-283C-4F8A-BA3C-2ADADFE30A47}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="95">
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Product ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
   <si>
     <t>Supplier</t>
   </si>
@@ -309,7 +303,166 @@
     <t>wrap Box</t>
   </si>
   <si>
-    <t xml:space="preserve">ProductList </t>
+    <t>ProductList</t>
+  </si>
+  <si>
+    <t>product name</t>
+  </si>
+  <si>
+    <t>product id</t>
+  </si>
+  <si>
+    <t>product name.1</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>CategoryDisplay</t>
+  </si>
+  <si>
+    <t>Milk Product_1_ Cheese Mozorella</t>
+  </si>
+  <si>
+    <t>Milk Product</t>
+  </si>
+  <si>
+    <t>Milk Product_2_ Butter</t>
+  </si>
+  <si>
+    <t>Milk Product_3_ Cheese Liquid</t>
+  </si>
+  <si>
+    <t>Milk Product_4_ Cheese Slice</t>
+  </si>
+  <si>
+    <t>Milk Product_5_ Paneer per kg</t>
+  </si>
+  <si>
+    <t>Bread Product_1_ Jambo_Bread</t>
+  </si>
+  <si>
+    <t>Bread Product</t>
+  </si>
+  <si>
+    <t>Bread Product_2_ Pizaa Base 10 inch</t>
+  </si>
+  <si>
+    <t>Bread Product_3_ Pizaa Base 7 inch</t>
+  </si>
+  <si>
+    <t>Bread Product_4_ Burgure</t>
+  </si>
+  <si>
+    <t>Bread Product_5_ Totrilla_Wrap</t>
+  </si>
+  <si>
+    <t>Sauces Product_1_ Mayonnaise_white</t>
+  </si>
+  <si>
+    <t>Sauces Product</t>
+  </si>
+  <si>
+    <t>Sauces Product_2_ Tandoori_Mayonnise</t>
+  </si>
+  <si>
+    <t>Sauces Product_3_ Pizaapasta</t>
+  </si>
+  <si>
+    <t>Sauces Product_4_ Siracha</t>
+  </si>
+  <si>
+    <t>Sauces Product_5_ Salsa</t>
+  </si>
+  <si>
+    <t>Sauces Product_6_ Tomato ketchup</t>
+  </si>
+  <si>
+    <t>Spice Product_1_ Chilli flakes</t>
+  </si>
+  <si>
+    <t>Spice Product</t>
+  </si>
+  <si>
+    <t>Spice Product_2_ Biryani masala</t>
+  </si>
+  <si>
+    <t>Spice Product_3_ Oregano</t>
+  </si>
+  <si>
+    <t>Spice Product_4_ Peri Peri masala</t>
+  </si>
+  <si>
+    <t>Spice Product_5_ Garam masala</t>
+  </si>
+  <si>
+    <t>Spice Product_6_ Chat Masala</t>
+  </si>
+  <si>
+    <t>Spice Product_7_ Black Pepper</t>
+  </si>
+  <si>
+    <t>Spice Product_8_ Salt</t>
+  </si>
+  <si>
+    <t>Pansari Product_1_ Soya per kg</t>
+  </si>
+  <si>
+    <t>Pansari Product</t>
+  </si>
+  <si>
+    <t>Pansari Product_2_ Rice Per Kg</t>
+  </si>
+  <si>
+    <t>Vege Product_1_ Potato Per Kg</t>
+  </si>
+  <si>
+    <t>Vege Product</t>
+  </si>
+  <si>
+    <t>Vege Product_2_ Tomato Per Kg</t>
+  </si>
+  <si>
+    <t>Vege Product_3_ Onion Per Kg</t>
+  </si>
+  <si>
+    <t>Vege Product_4_ Capcium Per Kg</t>
+  </si>
+  <si>
+    <t>Vege Product_5_ Bines Per Kg</t>
+  </si>
+  <si>
+    <t>Vege Product_6_ Carrot Per Kg</t>
+  </si>
+  <si>
+    <t>Vege Product_7_ Cabbage Per Kg</t>
+  </si>
+  <si>
+    <t>Vege Product_8_ Peas Per Kg</t>
+  </si>
+  <si>
+    <t>Vege Product_9_ Sweet Corns Per Kg</t>
+  </si>
+  <si>
+    <t>Packing_Product_1_ Pizaa Box10 Inch</t>
+  </si>
+  <si>
+    <t>Packing_Product</t>
+  </si>
+  <si>
+    <t>Packing Products</t>
+  </si>
+  <si>
+    <t>Packing_Product_2_ Pizaa Box7 Inch</t>
+  </si>
+  <si>
+    <t>Packing_Product_3_ Burger Box</t>
+  </si>
+  <si>
+    <t>Packing_Product_4_ Sandwich Box</t>
+  </si>
+  <si>
+    <t>Packing_Product_5_ wrap Box</t>
   </si>
 </sst>
 </file>
@@ -325,6 +478,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -377,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,9 +847,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5770E89-205D-499A-AD27-B041C8A715A4}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -704,828 +860,1076 @@
     <col min="3" max="3" width="35.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>A2 &amp; "_ " &amp; B2</f>
-        <v>Milk Product_1_ Cheese Mozorella</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="1">
         <v>535</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C25" si="0">A3 &amp; "_ " &amp; B3</f>
-        <v>Milk Product_2_ Butter</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Milk Product_3_ Cheese Liquid</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Milk Product_4_ Cheese Slice</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Milk Product_5_ Paneer per kg</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F6" s="1">
         <v>330</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Bread Product_1_ Jambo_Bread</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Bread Product_2_ Pizaa Base 10 inch</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F8" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Bread Product_3_ Pizaa Base 7 inch</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Bread Product_4_ Burgure</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F10" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Bread Product_5_ Totrilla_Wrap</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sauces Product_1_ Mayonnaise_white</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sauces Product_2_ Tandoori_Mayonnise</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sauces Product_3_ Pizaapasta</v>
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sauces Product_4_ Siracha</v>
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sauces Product_5_ Salsa</v>
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sauces Product_6_ Tomato ketchup</v>
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Spice Product_1_ Chilli flakes</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Spice Product_2_ Biryani masala</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F19" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Spice Product_3_ Oregano</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Spice Product_4_ Peri Peri masala</v>
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Spice Product_5_ Garam masala</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Spice Product_6_ Chat Masala</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Spice Product_7_ Black Pepper</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Spice Product_8_ Salt</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="1" t="str">
-        <f>A26 &amp; "_ " &amp; B26</f>
-        <v>Pansari Product_1_ Soya per kg</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="1" t="str">
-        <f>A27 &amp; "_ " &amp; B27</f>
-        <v>Pansari Product_2_ Rice Per Kg</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="1" t="str">
-        <f>A28 &amp; "_ " &amp; B28</f>
-        <v>Vege Product_1_ Potato Per Kg</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" ref="C29:C41" si="1">A29 &amp; "_ " &amp; B29</f>
-        <v>Vege Product_2_ Tomato Per Kg</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Vege Product_3_ Onion Per Kg</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Vege Product_4_ Capcium Per Kg</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Vege Product_5_ Bines Per Kg</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Vege Product_6_ Carrot Per Kg</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Vege Product_7_ Cabbage Per Kg</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Vege Product_8_ Peas Per Kg</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Vege Product_9_ Sweet Corns Per Kg</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Packing_Product_1_ Pizaa Box10 Inch</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Packing_Product_2_ Pizaa Box7 Inch</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Packing_Product_3_ Burger Box</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Packing_Product_4_ Sandwich Box</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Packing_Product_5_ wrap Box</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/product_template.xlsx
+++ b/product_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E37F1B-E99C-409B-81FC-55EEB2CA460D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC453475-E3A8-4866-910A-18105D4F0E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{979EDB74-283C-4F8A-BA3C-2ADADFE30A47}"/>
   </bookViews>
@@ -312,9 +312,6 @@
     <t>product id</t>
   </si>
   <si>
-    <t>product name.1</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
   </si>
   <si>
     <t>Packing_Product_5_ wrap Box</t>
+  </si>
+  <si>
+    <t>Product</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -876,7 +876,7 @@
         <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -899,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -911,10 +911,10 @@
         <v>535</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -925,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -937,10 +937,10 @@
         <v>290</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -951,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -963,10 +963,10 @@
         <v>180</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -977,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -989,10 +989,10 @@
         <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1003,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -1015,10 +1015,10 @@
         <v>330</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1029,7 +1029,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -1041,10 +1041,10 @@
         <v>70</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1055,7 +1055,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -1067,10 +1067,10 @@
         <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1081,7 +1081,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -1093,10 +1093,10 @@
         <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1107,7 +1107,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
@@ -1119,10 +1119,10 @@
         <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1133,7 +1133,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
@@ -1145,10 +1145,10 @@
         <v>80</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1159,7 +1159,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
@@ -1171,10 +1171,10 @@
         <v>110</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1185,7 +1185,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
@@ -1197,10 +1197,10 @@
         <v>180</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1211,7 +1211,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>33</v>
@@ -1223,10 +1223,10 @@
         <v>160</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1237,7 +1237,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>35</v>
@@ -1249,10 +1249,10 @@
         <v>210</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1263,7 +1263,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>37</v>
@@ -1275,10 +1275,10 @@
         <v>151</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>39</v>
@@ -1301,10 +1301,10 @@
         <v>90</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1315,7 +1315,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
@@ -1327,10 +1327,10 @@
         <v>180</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1341,7 +1341,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>43</v>
@@ -1353,10 +1353,10 @@
         <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1367,7 +1367,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>46</v>
@@ -1379,10 +1379,10 @@
         <v>180</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1393,7 +1393,7 @@
         <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>48</v>
@@ -1405,10 +1405,10 @@
         <v>125</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1419,7 +1419,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>50</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1445,7 +1445,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1471,7 +1471,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>54</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1497,7 +1497,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>56</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1523,7 +1523,7 @@
         <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>58</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1549,7 +1549,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>61</v>
@@ -1561,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1575,7 +1575,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>63</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1601,7 +1601,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>66</v>
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1627,7 +1627,7 @@
         <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>68</v>
@@ -1639,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1653,7 +1653,7 @@
         <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>70</v>
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -1679,7 +1679,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>72</v>
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1705,7 +1705,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>74</v>
@@ -1717,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -1731,7 +1731,7 @@
         <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>74</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1757,7 +1757,7 @@
         <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>74</v>
@@ -1769,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1783,7 +1783,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>80</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -1809,7 +1809,7 @@
         <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>82</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -1835,7 +1835,7 @@
         <v>85</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>85</v>
@@ -1847,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -1861,7 +1861,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>87</v>
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -1887,7 +1887,7 @@
         <v>89</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>89</v>
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -1913,7 +1913,7 @@
         <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>91</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/product_template.xlsx
+++ b/product_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC453475-E3A8-4866-910A-18105D4F0E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69CB83A-92C7-47EA-BFD2-E33F53BADC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{979EDB74-283C-4F8A-BA3C-2ADADFE30A47}"/>
   </bookViews>
@@ -303,12 +303,6 @@
     <t>wrap Box</t>
   </si>
   <si>
-    <t>ProductList</t>
-  </si>
-  <si>
-    <t>product name</t>
-  </si>
-  <si>
     <t>product id</t>
   </si>
   <si>
@@ -463,6 +457,12 @@
   </si>
   <si>
     <t>Product</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Product Name.1</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,13 +867,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>145</v>
@@ -885,10 +885,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -899,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -911,10 +911,10 @@
         <v>535</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -925,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -937,10 +937,10 @@
         <v>290</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -951,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -963,10 +963,10 @@
         <v>180</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -977,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -989,10 +989,10 @@
         <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1003,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -1015,10 +1015,10 @@
         <v>330</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1029,7 +1029,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -1041,10 +1041,10 @@
         <v>70</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1055,7 +1055,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -1067,10 +1067,10 @@
         <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1081,7 +1081,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -1093,10 +1093,10 @@
         <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1107,7 +1107,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
@@ -1119,10 +1119,10 @@
         <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1133,7 +1133,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
@@ -1145,10 +1145,10 @@
         <v>80</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1159,7 +1159,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
@@ -1171,10 +1171,10 @@
         <v>110</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1185,7 +1185,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
@@ -1197,10 +1197,10 @@
         <v>180</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1211,7 +1211,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>33</v>
@@ -1223,10 +1223,10 @@
         <v>160</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1237,7 +1237,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>35</v>
@@ -1249,10 +1249,10 @@
         <v>210</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1263,7 +1263,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>37</v>
@@ -1275,10 +1275,10 @@
         <v>151</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>39</v>
@@ -1301,10 +1301,10 @@
         <v>90</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1315,7 +1315,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
@@ -1327,10 +1327,10 @@
         <v>180</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1341,7 +1341,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>43</v>
@@ -1353,10 +1353,10 @@
         <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1367,7 +1367,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>46</v>
@@ -1379,10 +1379,10 @@
         <v>180</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1393,7 +1393,7 @@
         <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>48</v>
@@ -1405,10 +1405,10 @@
         <v>125</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1419,7 +1419,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>50</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1445,7 +1445,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1471,7 +1471,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>54</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1497,7 +1497,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>56</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1523,7 +1523,7 @@
         <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>58</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1549,7 +1549,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>61</v>
@@ -1561,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1575,7 +1575,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>63</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1601,7 +1601,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>66</v>
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1627,7 +1627,7 @@
         <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>68</v>
@@ -1639,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1653,7 +1653,7 @@
         <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>70</v>
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -1679,7 +1679,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>72</v>
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1705,7 +1705,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>74</v>
@@ -1717,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -1731,7 +1731,7 @@
         <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>74</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1757,7 +1757,7 @@
         <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>74</v>
@@ -1769,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1783,7 +1783,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>80</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -1809,7 +1809,7 @@
         <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>82</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -1835,7 +1835,7 @@
         <v>85</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>85</v>
@@ -1847,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -1861,7 +1861,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>87</v>
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -1887,7 +1887,7 @@
         <v>89</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>89</v>
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -1913,7 +1913,7 @@
         <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>91</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/product_template.xlsx
+++ b/product_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFCE9A0-96F3-4DDB-B590-96E8CC9D0F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FC6761-2FD4-4A3F-BB91-1D53611DE1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{979EDB74-283C-4F8A-BA3C-2ADADFE30A47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="144">
   <si>
     <t>Supplier</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Packing</t>
+  </si>
+  <si>
+    <t>Product No</t>
   </si>
 </sst>
 </file>
@@ -518,12 +521,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,9 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5770E89-205D-499A-AD27-B041C8A715A4}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -857,7 +857,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>140</v>
@@ -879,922 +879,922 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>535</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>290</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>180</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>109</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>330</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>70</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>40</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>40</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>45</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>80</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>110</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>180</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>160</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>210</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>151</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>90</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>180</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>45</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>180</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>125</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
         <v>114</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
         <v>114</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
         <v>126</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
         <v>126</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
         <v>142</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
         <v>142</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
         <v>142</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
         <v>142</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" t="s">
         <v>142</v>
       </c>
     </row>

--- a/product_template.xlsx
+++ b/product_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FC6761-2FD4-4A3F-BB91-1D53611DE1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461460E9-6A09-4B22-AC17-A89759E6A454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{979EDB74-283C-4F8A-BA3C-2ADADFE30A47}"/>
   </bookViews>
@@ -842,7 +842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5770E89-205D-499A-AD27-B041C8A715A4}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -852,7 +854,7 @@
     <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">

--- a/product_template.xlsx
+++ b/product_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CC60E5-B713-485E-B978-E1355DE0E903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827366C1-A194-4DAC-B015-CEA7FFB462EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{979EDB74-283C-4F8A-BA3C-2ADADFE30A47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="144">
   <si>
     <t>Supplier</t>
   </si>
@@ -835,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5770E89-205D-499A-AD27-B041C8A715A4}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:H41"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,9 +852,9 @@
     <col min="7" max="7" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>140</v>
@@ -874,11 +874,8 @@
       <c r="G1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -900,11 +897,8 @@
       <c r="G2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,11 +920,8 @@
       <c r="G3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -952,11 +943,8 @@
       <c r="G4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,11 +966,8 @@
       <c r="G5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1004,11 +989,8 @@
       <c r="G6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1030,11 +1012,8 @@
       <c r="G7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1056,11 +1035,8 @@
       <c r="G8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1082,11 +1058,8 @@
       <c r="G9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1108,11 +1081,8 @@
       <c r="G10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1134,11 +1104,8 @@
       <c r="G11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1160,11 +1127,8 @@
       <c r="G12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1186,11 +1150,8 @@
       <c r="G13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1212,11 +1173,8 @@
       <c r="G14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1238,11 +1196,8 @@
       <c r="G15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1264,11 +1219,8 @@
       <c r="G16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1290,11 +1242,8 @@
       <c r="G17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H17" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1316,11 +1265,8 @@
       <c r="G18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1342,11 +1288,8 @@
       <c r="G19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1368,11 +1311,8 @@
       <c r="G20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1394,11 +1334,8 @@
       <c r="G21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1420,11 +1357,8 @@
       <c r="G22" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -1446,11 +1380,8 @@
       <c r="G23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -1472,11 +1403,8 @@
       <c r="G24" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -1498,11 +1426,8 @@
       <c r="G25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -1524,11 +1449,8 @@
       <c r="G26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1550,11 +1472,8 @@
       <c r="G27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -1576,11 +1495,8 @@
       <c r="G28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -1602,11 +1518,8 @@
       <c r="G29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -1628,11 +1541,8 @@
       <c r="G30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -1654,11 +1564,8 @@
       <c r="G31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -1680,11 +1587,8 @@
       <c r="G32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H32" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -1706,11 +1610,8 @@
       <c r="G33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
@@ -1732,11 +1633,8 @@
       <c r="G34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -1758,11 +1656,8 @@
       <c r="G35" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H35" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -1784,11 +1679,8 @@
       <c r="G36" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H36" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
@@ -1810,11 +1702,8 @@
       <c r="G37" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -1836,11 +1725,8 @@
       <c r="G38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
@@ -1862,11 +1748,8 @@
       <c r="G39" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -1888,11 +1771,8 @@
       <c r="G40" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H40" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -1913,9 +1793,6 @@
       </c>
       <c r="G41" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="H41" s="1">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/product_template.xlsx
+++ b/product_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827366C1-A194-4DAC-B015-CEA7FFB462EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD51C3-57B8-464C-AEB3-B39BBB501F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{979EDB74-283C-4F8A-BA3C-2ADADFE30A47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="150">
   <si>
     <t>Supplier</t>
   </si>
@@ -312,9 +312,6 @@
     <t>Milk Product_1_ Cheese Mozorella</t>
   </si>
   <si>
-    <t>Milk Product</t>
-  </si>
-  <si>
     <t>Milk Product_2_ Butter</t>
   </si>
   <si>
@@ -330,9 +327,6 @@
     <t>Bread Product_1_ Jambo_Bread</t>
   </si>
   <si>
-    <t>Bread Product</t>
-  </si>
-  <si>
     <t>Bread Product_2_ Pizaa Base 10 inch</t>
   </si>
   <si>
@@ -348,9 +342,6 @@
     <t>Sauces Product_1_ Mayonnaise_white</t>
   </si>
   <si>
-    <t>Sauces Product</t>
-  </si>
-  <si>
     <t>Sauces Product_2_ Tandoori_Mayonnise</t>
   </si>
   <si>
@@ -369,9 +360,6 @@
     <t>Spice Product_1_ Chilli flakes</t>
   </si>
   <si>
-    <t>Spice Product</t>
-  </si>
-  <si>
     <t>Spice Product_2_ Biryani masala</t>
   </si>
   <si>
@@ -396,18 +384,12 @@
     <t>Pansari Product_1_ Soya per kg</t>
   </si>
   <si>
-    <t>Pansari Product</t>
-  </si>
-  <si>
     <t>Pansari Product_2_ Rice Per Kg</t>
   </si>
   <si>
     <t>Vege Product_1_ Potato Per Kg</t>
   </si>
   <si>
-    <t>Vege Product</t>
-  </si>
-  <si>
     <t>Vege Product_2_ Tomato Per Kg</t>
   </si>
   <si>
@@ -457,6 +439,42 @@
   </si>
   <si>
     <t>Product No</t>
+  </si>
+  <si>
+    <t>Product Name.1</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Sauces</t>
+  </si>
+  <si>
+    <t>Spice</t>
+  </si>
+  <si>
+    <t>Pansari</t>
+  </si>
+  <si>
+    <t>Vege</t>
+  </si>
+  <si>
+    <t>Packing Product_1</t>
+  </si>
+  <si>
+    <t>Packing Product_2</t>
+  </si>
+  <si>
+    <t>Packing Product_3</t>
+  </si>
+  <si>
+    <t>Packing Product_4</t>
+  </si>
+  <si>
+    <t>Packing Product_5</t>
   </si>
 </sst>
 </file>
@@ -835,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5770E89-205D-499A-AD27-B041C8A715A4}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection sqref="A1:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,30 +870,36 @@
     <col min="7" max="7" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I1" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -886,19 +910,25 @@
         <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>535</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,22 +936,28 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>290</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -929,22 +965,28 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>180</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -952,22 +994,28 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>109</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -975,22 +1023,28 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>330</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -998,22 +1052,28 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>70</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1021,22 +1081,28 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>40</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1044,22 +1110,28 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>40</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1067,22 +1139,28 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>45</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1090,22 +1168,28 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>80</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1113,22 +1197,28 @@
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>110</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1136,22 +1226,28 @@
         <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>180</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1159,22 +1255,28 @@
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>160</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1182,22 +1284,28 @@
         <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>210</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1205,22 +1313,28 @@
         <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>151</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1228,22 +1342,28 @@
         <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>90</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1251,22 +1371,28 @@
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>180</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1274,22 +1400,28 @@
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>45</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1297,22 +1429,28 @@
         <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>180</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1320,22 +1458,28 @@
         <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>125</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1343,22 +1487,28 @@
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -1366,22 +1516,28 @@
         <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -1389,22 +1545,28 @@
         <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -1412,22 +1574,28 @@
         <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -1435,22 +1603,28 @@
         <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1458,22 +1632,28 @@
         <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -1481,22 +1661,28 @@
         <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -1504,22 +1690,28 @@
         <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -1527,22 +1719,28 @@
         <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -1550,22 +1748,28 @@
         <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -1573,22 +1777,28 @@
         <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -1596,22 +1806,28 @@
         <v>74</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
@@ -1619,22 +1835,28 @@
         <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -1642,22 +1864,28 @@
         <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -1665,22 +1893,28 @@
         <v>80</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
@@ -1688,22 +1922,28 @@
         <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>0</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -1711,22 +1951,28 @@
         <v>85</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
@@ -1734,22 +1980,28 @@
         <v>87</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -1757,22 +2009,28 @@
         <v>89</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -1780,19 +2038,25 @@
         <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/product_template.xlsx
+++ b/product_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D008EB-455D-4995-868C-3012552B63BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE0FA33-1B36-4164-B55B-229616F48910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{979EDB74-283C-4F8A-BA3C-2ADADFE30A47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="186">
   <si>
     <t>Supplier</t>
   </si>
@@ -460,6 +460,129 @@
   </si>
   <si>
     <t>Product Name</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Garam masala.jpg</t>
+  </si>
+  <si>
+    <t>Chat Masala.jpg</t>
+  </si>
+  <si>
+    <t>Black Pepper.jpg</t>
+  </si>
+  <si>
+    <t>Salt.jpg</t>
+  </si>
+  <si>
+    <t>Soya per kg.jpg</t>
+  </si>
+  <si>
+    <t>Rice Per Kg.jpg</t>
+  </si>
+  <si>
+    <t>Potato Per Kg.jpg</t>
+  </si>
+  <si>
+    <t>Tomato Per Kg.jpg</t>
+  </si>
+  <si>
+    <t>Onion Per Kg.jpg</t>
+  </si>
+  <si>
+    <t>Capcium Per Kg.jpg</t>
+  </si>
+  <si>
+    <t>Bines Per Kg.jpg</t>
+  </si>
+  <si>
+    <t>Carrot Per Kg.jpg</t>
+  </si>
+  <si>
+    <t>Cabbage Per Kg.jpg</t>
+  </si>
+  <si>
+    <t>Cheese Mozorella.jpg</t>
+  </si>
+  <si>
+    <t>Butter.jpg</t>
+  </si>
+  <si>
+    <t>Cheese Liquid.jpg</t>
+  </si>
+  <si>
+    <t>Cheese Slice.jpg</t>
+  </si>
+  <si>
+    <t>Paneer per kg.jpg</t>
+  </si>
+  <si>
+    <t>Jambo_Bread.jpg</t>
+  </si>
+  <si>
+    <t>Pizaa Base 10 inch.jpg</t>
+  </si>
+  <si>
+    <t>Pizaa Base 7 inch.jpg</t>
+  </si>
+  <si>
+    <t>Burgure.jpg</t>
+  </si>
+  <si>
+    <t>Totrilla_Wrap.jpg</t>
+  </si>
+  <si>
+    <t>Mayonnaise_white.jpg</t>
+  </si>
+  <si>
+    <t>Tandoori_Mayonnise.jpg</t>
+  </si>
+  <si>
+    <t>Pizaapasta.jpg</t>
+  </si>
+  <si>
+    <t>Siracha.jpg</t>
+  </si>
+  <si>
+    <t>Salsa.jpg</t>
+  </si>
+  <si>
+    <t>Tomato ketchup.jpg</t>
+  </si>
+  <si>
+    <t>Chilli flakes.jpg</t>
+  </si>
+  <si>
+    <t>Biryani masala.jpg</t>
+  </si>
+  <si>
+    <t>Oregano.jpg</t>
+  </si>
+  <si>
+    <t>Peri Peri masala.jpg</t>
+  </si>
+  <si>
+    <t>Peas Per Kg.jpg</t>
+  </si>
+  <si>
+    <t>Sweet Corns Per Kg.jpg</t>
+  </si>
+  <si>
+    <t>Pizaa Box10 Inch.jpg</t>
+  </si>
+  <si>
+    <t>Pizaa Box7 Inch.jpg</t>
+  </si>
+  <si>
+    <t>Burger Box.jpg</t>
+  </si>
+  <si>
+    <t>Sandwich Box.jpg</t>
+  </si>
+  <si>
+    <t>wrap Box.jpg</t>
   </si>
 </sst>
 </file>
@@ -491,7 +614,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -514,13 +637,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -837,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5770E89-205D-499A-AD27-B041C8A715A4}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:H41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,9 +989,10 @@
     <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
@@ -879,8 +1017,11 @@
       <c r="H1" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -905,8 +1046,11 @@
       <c r="H2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -931,8 +1075,11 @@
       <c r="H3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -957,8 +1104,11 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -983,8 +1133,11 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1009,8 +1162,11 @@
       <c r="H6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1035,8 +1191,11 @@
       <c r="H7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1061,8 +1220,11 @@
       <c r="H8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1087,8 +1249,11 @@
       <c r="H9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1113,8 +1278,11 @@
       <c r="H10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1139,8 +1307,11 @@
       <c r="H11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1165,8 +1336,11 @@
       <c r="H12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1191,8 +1365,11 @@
       <c r="H13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1217,8 +1394,11 @@
       <c r="H14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1243,8 +1423,11 @@
       <c r="H15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1269,8 +1452,11 @@
       <c r="H16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1295,8 +1481,11 @@
       <c r="H17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1321,8 +1510,11 @@
       <c r="H18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1347,8 +1539,11 @@
       <c r="H19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1373,8 +1568,11 @@
       <c r="H20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1399,8 +1597,11 @@
       <c r="H21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1425,8 +1626,11 @@
       <c r="H22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1451,8 +1655,11 @@
       <c r="H23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1477,8 +1684,11 @@
       <c r="H24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1503,8 +1713,11 @@
       <c r="H25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1529,8 +1742,11 @@
       <c r="H26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1555,8 +1771,11 @@
       <c r="H27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1581,8 +1800,11 @@
       <c r="H28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1607,8 +1829,11 @@
       <c r="H29" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1633,8 +1858,11 @@
       <c r="H30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1659,8 +1887,11 @@
       <c r="H31" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1685,8 +1916,11 @@
       <c r="H32" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1711,8 +1945,11 @@
       <c r="H33" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -1737,8 +1974,11 @@
       <c r="H34" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -1763,8 +2003,11 @@
       <c r="H35" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -1789,8 +2032,11 @@
       <c r="H36" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -1815,8 +2061,11 @@
       <c r="H37" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -1841,8 +2090,11 @@
       <c r="H38" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -1867,8 +2119,11 @@
       <c r="H39" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -1893,8 +2148,11 @@
       <c r="H40" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -1918,6 +2176,9 @@
       </c>
       <c r="H41" t="s">
         <v>143</v>
+      </c>
+      <c r="I41" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/product_template.xlsx
+++ b/product_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE0FA33-1B36-4164-B55B-229616F48910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF847F-A8D8-43FA-AB87-D0B3058F36AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{979EDB74-283C-4F8A-BA3C-2ADADFE30A47}"/>
   </bookViews>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5770E89-205D-499A-AD27-B041C8A715A4}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/product_template.xlsx
+++ b/product_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF847F-A8D8-43FA-AB87-D0B3058F36AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9FE734-7CB1-409F-9561-32A6DC2CA486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{979EDB74-283C-4F8A-BA3C-2ADADFE30A47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="192">
   <si>
     <t>Supplier</t>
   </si>
@@ -411,9 +411,6 @@
     <t>Packing_Product_4_ Sandwich Box</t>
   </si>
   <si>
-    <t>Packing_Product_5_ wrap Box</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -582,14 +579,35 @@
     <t>Sandwich Box.jpg</t>
   </si>
   <si>
-    <t>wrap Box.jpg</t>
+    <t>Packing_Product_5_ Butter Papper</t>
+  </si>
+  <si>
+    <t>Butter Papper</t>
+  </si>
+  <si>
+    <t>Central market</t>
+  </si>
+  <si>
+    <t>Butter Papper.jpg</t>
+  </si>
+  <si>
+    <t>Packing_Product_6_ Polythene bag</t>
+  </si>
+  <si>
+    <t>Polythene bag.jpg</t>
+  </si>
+  <si>
+    <t>Polythene bag</t>
+  </si>
+  <si>
+    <t>Packing Product_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +619,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -974,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5770E89-205D-499A-AD27-B041C8A715A4}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,13 +1018,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1015,10 +1039,10 @@
         <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1038,16 +1062,16 @@
         <v>535</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1067,16 +1091,16 @@
         <v>290</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1096,16 +1120,16 @@
         <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1125,16 +1149,16 @@
         <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1154,16 +1178,16 @@
         <v>330</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1183,16 +1207,16 @@
         <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1212,16 +1236,16 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1241,16 +1265,16 @@
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1270,16 +1294,16 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1299,16 +1323,16 @@
         <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1328,16 +1352,16 @@
         <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1357,16 +1381,16 @@
         <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1386,16 +1410,16 @@
         <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1415,16 +1439,16 @@
         <v>210</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" t="s">
         <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1444,16 +1468,16 @@
         <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1473,16 +1497,16 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
         <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1502,16 +1526,16 @@
         <v>180</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H18" t="s">
         <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1531,16 +1555,16 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1560,16 +1584,16 @@
         <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H20" t="s">
         <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1589,16 +1613,16 @@
         <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H21" t="s">
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1618,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H22" t="s">
         <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1647,16 +1671,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H23" t="s">
         <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1676,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H24" t="s">
         <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1705,16 +1729,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H25" t="s">
         <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1734,16 +1758,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1763,16 +1787,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H27" t="s">
         <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1792,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" t="s">
         <v>62</v>
       </c>
       <c r="I28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1821,16 +1845,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" t="s">
         <v>65</v>
       </c>
       <c r="I29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1850,16 +1874,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" t="s">
         <v>67</v>
       </c>
       <c r="I30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1879,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H31" t="s">
         <v>69</v>
       </c>
       <c r="I31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1908,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H32" t="s">
         <v>71</v>
       </c>
       <c r="I32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1937,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H33" t="s">
         <v>73</v>
       </c>
       <c r="I33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1966,16 +1990,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H34" t="s">
         <v>75</v>
       </c>
       <c r="I34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1995,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H35" t="s">
         <v>77</v>
       </c>
       <c r="I35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -2024,16 +2048,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H36" t="s">
         <v>79</v>
       </c>
       <c r="I36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -2053,16 +2077,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2082,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2111,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2140,16 +2164,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2157,31 +2181,58 @@
         <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I41" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H42" t="s">
+        <v>191</v>
+      </c>
+      <c r="I42" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/product_template.xlsx
+++ b/product_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9FE734-7CB1-409F-9561-32A6DC2CA486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C3972-1266-4A87-B858-2765EEDDA4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{979EDB74-283C-4F8A-BA3C-2ADADFE30A47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="191">
   <si>
     <t>Supplier</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Sandwich Box</t>
   </si>
   <si>
-    <t>wrap Box</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
     <t>Butter Papper.jpg</t>
   </si>
   <si>
-    <t>Packing_Product_6_ Polythene bag</t>
-  </si>
-  <si>
     <t>Polythene bag.jpg</t>
   </si>
   <si>
@@ -601,6 +595,9 @@
   </si>
   <si>
     <t>Packing Product_6</t>
+  </si>
+  <si>
+    <t>Packing_Product_6_Polythene bag</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5770E89-205D-499A-AD27-B041C8A715A4}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1018,13 +1015,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1033,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1050,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1062,16 +1059,16 @@
         <v>535</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1079,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1091,16 +1088,16 @@
         <v>290</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1108,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1120,16 +1117,16 @@
         <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1137,7 +1134,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1149,16 +1146,16 @@
         <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1166,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1178,16 +1175,16 @@
         <v>330</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1195,7 +1192,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1207,16 +1204,16 @@
         <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1224,7 +1221,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1236,16 +1233,16 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1253,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -1265,16 +1262,16 @@
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1282,7 +1279,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -1294,16 +1291,16 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1311,7 +1308,7 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1323,16 +1320,16 @@
         <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1340,7 +1337,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1352,16 +1349,16 @@
         <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1369,7 +1366,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -1381,16 +1378,16 @@
         <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1398,7 +1395,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -1410,16 +1407,16 @@
         <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1427,7 +1424,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -1439,16 +1436,16 @@
         <v>210</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
         <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1456,7 +1453,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -1468,16 +1465,16 @@
         <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1485,7 +1482,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -1497,16 +1494,16 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
         <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1514,7 +1511,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -1526,16 +1523,16 @@
         <v>180</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
         <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1543,7 +1540,7 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -1555,16 +1552,16 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1572,7 +1569,7 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -1584,16 +1581,16 @@
         <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H20" t="s">
         <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1601,7 +1598,7 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
@@ -1613,16 +1610,16 @@
         <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H21" t="s">
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1630,7 +1627,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -1642,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
         <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1659,7 +1656,7 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
         <v>52</v>
@@ -1671,16 +1668,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H23" t="s">
         <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1688,7 +1685,7 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
@@ -1700,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H24" t="s">
         <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1717,7 +1714,7 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
         <v>56</v>
@@ -1729,16 +1726,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H25" t="s">
         <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1746,7 +1743,7 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
         <v>58</v>
@@ -1758,16 +1755,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1775,7 +1772,7 @@
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
@@ -1787,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H27" t="s">
         <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1804,7 +1801,7 @@
         <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -1816,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H28" t="s">
         <v>62</v>
       </c>
       <c r="I28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1833,7 +1830,7 @@
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -1845,16 +1842,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H29" t="s">
         <v>65</v>
       </c>
       <c r="I29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1862,7 +1859,7 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1874,16 +1871,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H30" t="s">
         <v>67</v>
       </c>
       <c r="I30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1891,7 +1888,7 @@
         <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
         <v>70</v>
@@ -1903,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H31" t="s">
         <v>69</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1920,7 +1917,7 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
@@ -1932,16 +1929,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H32" t="s">
         <v>71</v>
       </c>
       <c r="I32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1949,7 +1946,7 @@
         <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
         <v>74</v>
@@ -1961,16 +1958,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H33" t="s">
         <v>73</v>
       </c>
       <c r="I33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1978,7 +1975,7 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
         <v>74</v>
@@ -1990,16 +1987,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H34" t="s">
         <v>75</v>
       </c>
       <c r="I34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2007,7 +2004,7 @@
         <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
         <v>74</v>
@@ -2019,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H35" t="s">
         <v>77</v>
       </c>
       <c r="I35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -2036,7 +2033,7 @@
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
         <v>80</v>
@@ -2048,16 +2045,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H36" t="s">
         <v>79</v>
       </c>
       <c r="I36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -2065,7 +2062,7 @@
         <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
         <v>81</v>
@@ -2077,16 +2074,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2094,7 +2091,7 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
         <v>83</v>
@@ -2106,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2123,7 +2120,7 @@
         <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
         <v>84</v>
@@ -2135,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2152,7 +2149,7 @@
         <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
         <v>85</v>
@@ -2164,71 +2161,74 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="B41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" t="s">
         <v>184</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>185</v>
-      </c>
-      <c r="D41" t="s">
-        <v>186</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
       <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
         <v>188</v>
       </c>
-      <c r="C42" t="s">
-        <v>190</v>
-      </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/product_template.xlsx
+++ b/product_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C3972-1266-4A87-B858-2765EEDDA4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809C9F99-E9AC-4A45-A3D8-88243E669FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{979EDB74-283C-4F8A-BA3C-2ADADFE30A47}"/>
   </bookViews>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5770E89-205D-499A-AD27-B041C8A715A4}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/product_template.xlsx
+++ b/product_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809C9F99-E9AC-4A45-A3D8-88243E669FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77E5719-0C30-457A-998D-BF91FADB171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{979EDB74-283C-4F8A-BA3C-2ADADFE30A47}"/>
   </bookViews>
@@ -998,7 +998,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
